--- a/TEAM-DOC-PART/评审表.xlsx
+++ b/TEAM-DOC-PART/评审表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="90">
   <si>
     <t>第五组评审表</t>
   </si>
@@ -273,24 +273,32 @@
     <t>数据流图、类图和泳道图（15）</t>
   </si>
   <si>
-    <t>系统模块设计（15）</t>
+    <t>功能模块层次设计（15）</t>
   </si>
   <si>
-    <t>数据库设计
+    <t>ER图和表结构设计
 （15）</t>
   </si>
   <si>
-    <t>系统交互设计
+    <t>PPT质量
+（10）</t>
+  </si>
+  <si>
+    <t>接口设计
 （15）</t>
   </si>
   <si>
-    <t>权限设计（5）</t>
+    <t>安全性和健壮性（5）</t>
   </si>
   <si>
     <t>团队计划（5）</t>
   </si>
   <si>
     <t>总体分工和贡献度（5）</t>
+  </si>
+  <si>
+    <t>存在问题和建议
+（5）</t>
   </si>
   <si>
     <t>徐</t>
@@ -301,13 +309,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0_ "/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -449,14 +457,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,24 +485,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,32 +499,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,14 +517,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -570,8 +577,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,14 +587,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,6 +595,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,7 +616,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,13 +694,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,49 +748,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,55 +766,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,43 +790,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,6 +980,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -997,32 +1035,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,26 +1062,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,10 +1084,10 @@
     <xf numFmtId="42" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1088,133 +1096,133 @@
     <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1264,268 +1272,268 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11092,7 +11100,7 @@
   <dimension ref="A1:Q201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -11194,22 +11202,22 @@
         <v>82</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="M4" s="36" t="s">
         <v>47</v>
@@ -11353,7 +11361,7 @@
     <row r="10" ht="21" customHeight="1" spans="1:17">
       <c r="A10" s="17"/>
       <c r="B10" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
